--- a/shipClassTests/testResults/series_sys_test.xlsx
+++ b/shipClassTests/testResults/series_sys_test.xlsx
@@ -469,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -575,10 +575,10 @@
         <v>3</v>
       </c>
       <c r="F3" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -590,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3" s="3">
         <f>IF(B3 = G3, 1, 0)</f>
@@ -611,13 +611,13 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -629,7 +629,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4" s="3">
         <f>IF(B4 = G4, 1, 0)</f>
@@ -641,22 +641,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -668,15 +668,54 @@
         <v>3</v>
       </c>
       <c r="K5" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5" s="3">
         <f>IF(B5 = G5, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <f>IF(B6 = G6, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L5">
+  <conditionalFormatting sqref="L2:L6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -692,7 +731,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -784,13 +823,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -821,10 +860,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -855,10 +894,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -887,8 +926,45 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3">
+        <f>IF(B6 = F6, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <f>MODE(C6:E6)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J5">
+  <conditionalFormatting sqref="J2:J6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -898,7 +974,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K5">
+  <conditionalFormatting sqref="K2:K6">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -914,7 +990,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1006,13 +1082,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1043,13 +1119,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1080,7 +1156,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1109,8 +1185,45 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3">
+        <f>IF(B6 = F6, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <f>MODE(C6:E6)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J5">
+  <conditionalFormatting sqref="J2:J6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1120,7 +1233,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K5">
+  <conditionalFormatting sqref="K2:K6">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1136,7 +1249,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1234,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1262,13 +1375,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -1280,7 +1393,7 @@
         <v>3</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="4">
         <v>3</v>
@@ -1299,7 +1412,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1317,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" s="4">
         <v>3</v>
@@ -1331,8 +1444,45 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3">
+        <f>IF(B6 = F6, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <f>MODE(C6:E6)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J5">
+  <conditionalFormatting sqref="J2:J6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1342,7 +1492,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K5">
+  <conditionalFormatting sqref="K2:K6">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1358,7 +1508,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1447,10 +1597,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1459,16 +1609,16 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="3">
         <f>IF(B3 = F3, 1, 0)</f>
@@ -1484,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1496,16 +1646,16 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" s="3">
         <f>IF(B4 = F4, 1, 0)</f>
@@ -1521,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1530,19 +1680,19 @@
         <v>1</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="3">
         <f>IF(B5 = F5, 1, 0)</f>
@@ -1553,8 +1703,45 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <f>IF(B6 = F6, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <f>MODE(C6:E6)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J5">
+  <conditionalFormatting sqref="J2:J6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1564,7 +1751,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K5">
+  <conditionalFormatting sqref="K2:K6">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/shipClassTests/testResults/series_sys_test.xlsx
+++ b/shipClassTests/testResults/series_sys_test.xlsx
@@ -469,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -563,159 +563,42 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3" s="3">
         <f>IF(B3 = G3, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3">
-        <f>IF(B4 = G4, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
-        <f>IF(B5 = G5, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3">
-        <f>IF(B6 = G6, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L6">
+  <conditionalFormatting sqref="L2:L3">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -731,7 +614,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -820,28 +703,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3">
         <f>IF(B3 = F3, 1, 0)</f>
@@ -852,119 +735,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4" s="4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="3">
-        <f>IF(B4 = F4, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <f>MODE(C4:E4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3">
-        <f>IF(B5 = F5, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <f>MODE(C5:E5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6" s="4">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3">
-        <f>IF(B6 = F6, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <f>MODE(C6:E6)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J6">
+  <conditionalFormatting sqref="J2:J3">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -974,7 +746,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K6">
+  <conditionalFormatting sqref="K2:K3">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -990,7 +762,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1085,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -1111,119 +883,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4" s="4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="3">
-        <f>IF(B4 = F4, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <f>MODE(C4:E4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3">
-        <f>IF(B5 = F5, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <f>MODE(C5:E5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6" s="4">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3">
-        <f>IF(B6 = F6, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <f>MODE(C6:E6)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J6">
+  <conditionalFormatting sqref="J2:J3">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1233,7 +894,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K6">
+  <conditionalFormatting sqref="K2:K3">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1249,7 +910,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1338,28 +999,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3">
         <f>IF(B3 = F3, 1, 0)</f>
@@ -1370,119 +1031,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4" s="4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="3">
-        <f>IF(B4 = F4, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <f>MODE(C4:E4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3">
-        <f>IF(B5 = F5, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <f>MODE(C5:E5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6" s="4">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3">
-        <f>IF(B6 = F6, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <f>MODE(C6:E6)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J6">
+  <conditionalFormatting sqref="J2:J3">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1492,7 +1042,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K6">
+  <conditionalFormatting sqref="K2:K3">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1508,7 +1058,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1600,25 +1150,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="3">
         <f>IF(B3 = F3, 1, 0)</f>
@@ -1629,119 +1179,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <f>IF(B4 = F4, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <f>MODE(C4:E4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <f>IF(B5 = F5, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <f>MODE(C5:E5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <f>IF(B6 = F6, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <f>MODE(C6:E6)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J6">
+  <conditionalFormatting sqref="J2:J3">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1751,7 +1190,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K6">
+  <conditionalFormatting sqref="K2:K3">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
